--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Desktop\Git\ShareSkill\marsframework\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Desktop\Git\ProjectMarsManageListing\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2333AC-7684-4906-A4DA-75ECAB9BE19E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308C59A1-B97E-4FE2-813D-8C857FF755EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="3855" windowWidth="10365" windowHeight="7065" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
-    <sheet name="SignIn" sheetId="1" r:id="rId2"/>
-    <sheet name="Profile" sheetId="2" r:id="rId3"/>
+    <sheet name="Profile1" sheetId="2" r:id="rId2"/>
+    <sheet name="Profile" sheetId="5" r:id="rId3"/>
+    <sheet name="ShareSkill" sheetId="4" r:id="rId4"/>
+    <sheet name="ManageListing" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
-  <si>
-    <t>Url</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
   <si>
     <t>Username</t>
   </si>
@@ -115,12 +114,154 @@
   </si>
   <si>
     <t>http://localhost:5000</t>
+  </si>
+  <si>
+    <t>Startdate</t>
+  </si>
+  <si>
+    <t>Enddate</t>
+  </si>
+  <si>
+    <t>Selectday</t>
+  </si>
+  <si>
+    <t>Starttime</t>
+  </si>
+  <si>
+    <t>Endtime</t>
+  </si>
+  <si>
+    <t>SkillTrade</t>
+  </si>
+  <si>
+    <t>Skill-Exchange</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Performance Testing</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>SkillLevel</t>
+  </si>
+  <si>
+    <t>CertificationYear</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>LanguageLevel</t>
+  </si>
+  <si>
+    <t>Beginner</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>B.A</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Manual Testing</t>
+  </si>
+  <si>
+    <t>M.A</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>EarnTarget</t>
+  </si>
+  <si>
+    <t>Full Time</t>
+  </si>
+  <si>
+    <t>less than 30 hours</t>
+  </si>
+  <si>
+    <t>less than $500</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>ServiceType</t>
+  </si>
+  <si>
+    <t>LocationType</t>
+  </si>
+  <si>
+    <t>Would like to provide selenium training for beginners</t>
+  </si>
+  <si>
+    <t>Programming &amp; Tech</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>One-off service</t>
+  </si>
+  <si>
+    <t>On-site</t>
+  </si>
+  <si>
+    <t>CurrentPassword</t>
+  </si>
+  <si>
+    <t>ChangePassword</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>url</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,10 +308,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -527,30 +674,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D2">
         <v>123123</v>
@@ -568,58 +715,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2">
-        <v>123123</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" display="Test@123" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showRowColHeaders="0" view="pageLayout" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,66 +736,423 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC42C25-3281-4087-A5E8-8EC6F30CBDF8}">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="50.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="17" max="19" width="14.5703125" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
       </c>
       <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2">
+        <v>2018</v>
+      </c>
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2">
+        <v>2017</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3">
+        <v>2020</v>
+      </c>
+      <c r="L3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3">
+        <v>2018</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R2" r:id="rId1" xr:uid="{1F340939-007C-41D9-830C-F753CF3E84EB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464BEAF4-09D9-44BC-838E-9C210E7CF053}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
-        <v>26</v>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="3">
+        <v>44086</v>
+      </c>
+      <c r="I2" s="4">
+        <v>44089</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA15C9E-B525-4A90-AECE-3F3D27FAE12A}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
